--- a/YellowPage/src/main/webapp/template/List_PublishLog.xlsx
+++ b/YellowPage/src/main/webapp/template/List_PublishLog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ESB_TEAM\EIMS\workspace\YellowPage\src\main\webapp\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kwonyongsu\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>자원 종류</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -86,6 +86,18 @@
   </si>
   <si>
     <t>로그 종류</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>배포일</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>자원 버전</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>배포 상태</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -726,7 +738,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -751,13 +763,16 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1091,10 +1106,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1102,23 +1117,25 @@
     <col min="1" max="1" width="18.75" style="1" customWidth="1"/>
     <col min="2" max="5" width="18.375" style="1" customWidth="1"/>
     <col min="6" max="8" width="18.75" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="9" max="9" width="18.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="22.5" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:8" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
+    <row r="1" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
     </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -1127,69 +1144,75 @@
       <c r="F3" s="2"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:8" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:10" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="10"/>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="1:8" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:10" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:10" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="7"/>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="7"/>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="7"/>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="C7" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="9" t="s">
-        <v>2</v>
-      </c>
+      <c r="D7" s="12"/>
       <c r="E7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="9" t="s">
+      <c r="I7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="J7" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1197,7 +1220,7 @@
   <mergeCells count="3">
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="A2:H2"/>
-    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/YellowPage/src/main/webapp/template/List_PublishLog.xlsx
+++ b/YellowPage/src/main/webapp/template/List_PublishLog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kwonyongsu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ESB_TEAM\EIMS\workspace\YellowPage\src\main\webapp\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>자원 종류</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -86,18 +86,6 @@
   </si>
   <si>
     <t>로그 종류</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>배포일</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>자원 버전</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>배포 상태</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -738,7 +726,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -763,16 +751,13 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1106,10 +1091,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1117,25 +1102,23 @@
     <col min="1" max="1" width="18.75" style="1" customWidth="1"/>
     <col min="2" max="5" width="18.375" style="1" customWidth="1"/>
     <col min="6" max="8" width="18.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="22.5" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
+    <row r="1" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:8" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -1144,75 +1127,69 @@
       <c r="F3" s="2"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:10" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:8" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="10"/>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="1:10" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:8" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:8" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="7"/>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="7"/>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="9" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="7"/>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="9" t="s">
         <v>11</v>
       </c>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="9" t="s">
+    <row r="7" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="12"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="9" t="s">
+        <v>2</v>
+      </c>
       <c r="E7" s="9" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J7" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1220,7 +1197,7 @@
   <mergeCells count="3">
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="A2:H2"/>
-    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
